--- a/citizensLoader3a/src/main/resources/test.xlsx
+++ b/citizensLoader3a/src/main/resources/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Nombre</t>
   </si>
@@ -35,46 +35,40 @@
     <t>DNI</t>
   </si>
   <si>
-    <t>NombreUserSQfA</t>
-  </si>
-  <si>
-    <t>ApellidosUserCNab</t>
-  </si>
-  <si>
-    <t>emailUser1@example.com</t>
-  </si>
-  <si>
-    <t>Dirección postalUser1</t>
-  </si>
-  <si>
-    <t>NacionalidadUserdKSX</t>
-  </si>
-  <si>
-    <t>77144934L</t>
-  </si>
-  <si>
-    <t>NombreUserLGwG</t>
-  </si>
-  <si>
-    <t>ApellidosUseryKDZ</t>
-  </si>
-  <si>
-    <t>emailUser2@example.com</t>
-  </si>
-  <si>
-    <t>Dirección postalUser2</t>
-  </si>
-  <si>
-    <t>NacionalidadUserRlop</t>
-  </si>
-  <si>
-    <t>11899968O</t>
-  </si>
-  <si>
-    <t>NombreUserTvbI</t>
-  </si>
-  <si>
-    <t>ApellidosUserrTLN</t>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Hernández Pérez</t>
+  </si>
+  <si>
+    <t>admin@me.com</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>12541211B</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Rodríguez García</t>
+  </si>
+  <si>
+    <t>user@me.com</t>
+  </si>
+  <si>
+    <t>14321234Z</t>
+  </si>
+  <si>
+    <t>NombreUserLLBl</t>
+  </si>
+  <si>
+    <t>ApellidosUseryYUL</t>
   </si>
   <si>
     <t>emailUser3@example.com</t>
@@ -83,16 +77,16 @@
     <t>Dirección postalUser3</t>
   </si>
   <si>
-    <t>NacionalidadUserSJwB</t>
-  </si>
-  <si>
-    <t>76653128I</t>
-  </si>
-  <si>
-    <t>NombreUserbLiT</t>
-  </si>
-  <si>
-    <t>ApellidosUservcaJ</t>
+    <t>NacionalidadUserXFHx</t>
+  </si>
+  <si>
+    <t>70128613L</t>
+  </si>
+  <si>
+    <t>NombreUserwxqf</t>
+  </si>
+  <si>
+    <t>ApellidosUserrJsB</t>
   </si>
   <si>
     <t>emailUser4@example.com</t>
@@ -101,16 +95,16 @@
     <t>Dirección postalUser4</t>
   </si>
   <si>
-    <t>NacionalidadUserIjHe</t>
-  </si>
-  <si>
-    <t>38765125D</t>
-  </si>
-  <si>
-    <t>NombreUsermtJb</t>
-  </si>
-  <si>
-    <t>ApellidosUserDCEl</t>
+    <t>NacionalidadUserNNyW</t>
+  </si>
+  <si>
+    <t>45164059S</t>
+  </si>
+  <si>
+    <t>NombreUserfdix</t>
+  </si>
+  <si>
+    <t>ApellidosUserYlfb</t>
   </si>
   <si>
     <t>emailUser5@example.com</t>
@@ -119,16 +113,16 @@
     <t>Dirección postalUser5</t>
   </si>
   <si>
-    <t>NacionalidadUserfqsA</t>
-  </si>
-  <si>
-    <t>93322957R</t>
-  </si>
-  <si>
-    <t>NombreUsergYZC</t>
-  </si>
-  <si>
-    <t>ApellidosUserZmOn</t>
+    <t>NacionalidadUserzBDW</t>
+  </si>
+  <si>
+    <t>91911875R</t>
+  </si>
+  <si>
+    <t>NombreUserbllU</t>
+  </si>
+  <si>
+    <t>ApellidosUsermNxR</t>
   </si>
   <si>
     <t>emailUser6@example.com</t>
@@ -137,16 +131,16 @@
     <t>Dirección postalUser6</t>
   </si>
   <si>
-    <t>NacionalidadUserWkML</t>
-  </si>
-  <si>
-    <t>40463398F</t>
-  </si>
-  <si>
-    <t>NombreUserjyZb</t>
-  </si>
-  <si>
-    <t>ApellidosUserUPOn</t>
+    <t>NacionalidadUseryjun</t>
+  </si>
+  <si>
+    <t>60027291J</t>
+  </si>
+  <si>
+    <t>NombreUserulFD</t>
+  </si>
+  <si>
+    <t>ApellidosUserODdV</t>
   </si>
   <si>
     <t>emailUser7@example.com</t>
@@ -155,16 +149,16 @@
     <t>Dirección postalUser7</t>
   </si>
   <si>
-    <t>NacionalidadUserYYol</t>
-  </si>
-  <si>
-    <t>02821050S</t>
-  </si>
-  <si>
-    <t>NombreUserehIL</t>
-  </si>
-  <si>
-    <t>ApellidosUserXGKx</t>
+    <t>NacionalidadUseriQnQ</t>
+  </si>
+  <si>
+    <t>32920066T</t>
+  </si>
+  <si>
+    <t>NombreUserGdPC</t>
+  </si>
+  <si>
+    <t>ApellidosUserTJGP</t>
   </si>
   <si>
     <t>emailUser8@example.com</t>
@@ -173,16 +167,16 @@
     <t>Dirección postalUser8</t>
   </si>
   <si>
-    <t>NacionalidadUserEKlC</t>
-  </si>
-  <si>
-    <t>58653165L</t>
-  </si>
-  <si>
-    <t>NombreUsergitq</t>
-  </si>
-  <si>
-    <t>ApellidosUserYxhg</t>
+    <t>NacionalidadUserdYbx</t>
+  </si>
+  <si>
+    <t>61959054H</t>
+  </si>
+  <si>
+    <t>NombreUseroiMA</t>
+  </si>
+  <si>
+    <t>ApellidosUsercKNN</t>
   </si>
   <si>
     <t>emailUser9@example.com</t>
@@ -191,10 +185,10 @@
     <t>Dirección postalUser9</t>
   </si>
   <si>
-    <t>NacionalidadUserrERA</t>
-  </si>
-  <si>
-    <t>82379708Q</t>
+    <t>NacionalidadUseraHFv</t>
+  </si>
+  <si>
+    <t>27479673G</t>
   </si>
 </sst>
 </file>
@@ -279,7 +273,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>34335.0</v>
+        <v>42865.0</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -302,177 +296,177 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>34335.0</v>
+        <v>42865.0</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="n">
+        <v>34335.0</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="n">
-        <v>34335.0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="n">
+        <v>34335.0</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
-        <v>34335.0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="n">
+        <v>34335.0</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="n">
-        <v>34335.0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="n">
+        <v>34335.0</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
-        <v>34335.0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="n">
+        <v>34335.0</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="n">
-        <v>34335.0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="n">
+        <v>34335.0</v>
+      </c>
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="n">
-        <v>34335.0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="n">
+        <v>34335.0</v>
+      </c>
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="n">
-        <v>34335.0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
